--- a/excel/hw7.xlsx
+++ b/excel/hw7.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\keithalewis\FRE6233\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\xlladdins\FRE6233\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF810D23-28A0-406A-8BAB-B82B5D099D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A7E79-827C-40DE-BA9A-5C58B3154E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="19170" windowHeight="10170" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="eps">Sheet1!$N$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -96,6 +99,496 @@
       </text>
     </comment>
     <comment ref="I10" authorId="0" shapeId="0" xr:uid="{6D70860F-C230-47E4-B79A-9F5C462F86CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{05FAE170-5649-46AB-B001-ECB6E46F4207}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{D47185C1-F996-4FD8-B2A6-7778313911EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{798BE6DE-079B-4CB2-B932-8667C8BD33E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{6F57F9E9-C272-4F73-8F3B-F151910307EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{C957E953-BB57-46CF-A607-A4F2C1BB75A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{AB057345-EED1-4FC4-AC70-6DE229B1A55C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{AEF82684-11EB-463B-B7DA-2E19C335A69B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{7593913A-CE1E-439C-AABC-9AB704A91289}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{49CFD577-2E24-4A4F-B70D-C1E2EC621264}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{A035D644-9244-4E45-AA01-807E319C312D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{E6EA218F-1A74-4E4B-B7A6-02B241E42833}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{0B482C5B-4803-4875-BAFA-25FD5731680E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{A581AFF4-D189-457C-91D2-8118CFE563F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{597BE684-182B-4D43-9F3D-7C941C79D12A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{982D97B7-0168-4BFC-98CE-46DD3AC37127}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{81F9D17F-5F98-4DFF-A6C7-91B723BC0C72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{8838362A-E256-44CA-B938-2C0F43E484BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{F1B1CD64-180E-460E-8CEA-2CF41AE7B9A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{EA5F3C02-C0F3-4674-95FC-7CB064BD1A04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{A8F5E9E8-06DB-4756-B6D0-043C3895A9C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{9153579B-C748-4D7A-8C9C-04EE43E6CCA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{8475982B-6534-4B17-A88B-F5836154BF2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{9B75BA0A-DE04-4CB6-B4DC-66F3585CBAA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{DE9BA935-77A6-4A6C-BF8D-89D2603C003D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{95CDF383-8E08-4683-9C99-5B8E03E406B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{6EF71EB7-D639-4C97-8575-7827C16B461C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{7D2FB985-689E-4035-8D38-A382BA568594}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{14FF808C-F99C-434E-AB34-5DEDCE682366}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{9977D427-F72F-42BF-96CE-2524BE329DC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{13A3CA8E-F730-49AC-BD97-E64F47DE9011}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{46D3259C-D2B9-47A8-A0E1-92B7ABDBFCAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K21" authorId="0" shapeId="0" xr:uid="{4FE66761-EBE8-4674-835A-614545D02EAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{3A269154-EDFB-4EC4-825D-663EF2019011}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{7DE1E303-EA8C-430A-883F-AD05263935B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Homework 7 answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{26D6ACAA-F9F7-4693-9B89-446F82110C99}">
       <text>
         <r>
           <rPr>
@@ -136,7 +629,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Black-Scholes/Merton</t>
   </si>
@@ -175,6 +668,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>eps</t>
   </si>
 </sst>
 </file>
@@ -277,7 +773,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +783,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -603,23 +1101,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566DE474-7680-4E6F-8EA1-92B34E11CB88}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -651,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -676,7 +1177,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -701,7 +1202,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -725,7 +1226,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>100</v>
       </c>
@@ -747,7 +1248,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.01</v>
       </c>
@@ -770,11 +1271,20 @@
         <f t="array" ref="H10">_xll.OPTION.VALUE(C10, D10, CODE(E10), F10, G10, B10)</f>
         <v>3.8591823289540264</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I10" s="4" cm="1">
+        <f t="array" ref="I10">_xll.OPTION.DELTA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
+        <v>-0.47010735594710462</v>
+      </c>
+      <c r="J10" s="4" cm="1">
+        <f t="array" ref="J10">_xll.OPTION.GAMMA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
+        <v>3.9782183160749704E-2</v>
+      </c>
+      <c r="K10" s="4" cm="1">
+        <f t="array" ref="K10">_xll.OPTION.VEGA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
+        <v>19.891091580374855</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.01</v>
       </c>
@@ -797,11 +1307,20 @@
         <f t="array" ref="H11">_xll.OPTION.VALUE(C11, D11, CODE(E11), F11, G11, B11)</f>
         <v>4.1088700892080237</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I11" s="4" cm="1">
+        <f t="array" ref="I11">_xll.OPTION.DELTA($C11,$D11,CODE($E11),$F11,$G11,$B11)</f>
+        <v>0.52989264405289538</v>
+      </c>
+      <c r="J11" s="4" cm="1">
+        <f t="array" ref="J11">_xll.OPTION.GAMMA($C11,$D11,CODE($E11),$F11,$G11,$B11)</f>
+        <v>3.9782183160749704E-2</v>
+      </c>
+      <c r="K11" s="4" cm="1">
+        <f t="array" ref="K11">_xll.OPTION.VEGA($C11,$D11,CODE($E11),$F11,$G11,$B11)</f>
+        <v>19.891091580374855</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.01</v>
       </c>
@@ -824,11 +1343,20 @@
         <f t="array" ref="H12">_xll.OPTION.VALUE(C12, D12, CODE(E12), F12, G12, B12)</f>
         <v>11.158704959381202</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I12" s="4" cm="1">
+        <f t="array" ref="I12">_xll.OPTION.DELTA($C12,$D12,CODE($E12),$F12,$G12,$B12)</f>
+        <v>0.84804902752712896</v>
+      </c>
+      <c r="J12" s="4" cm="1">
+        <f t="array" ref="J12">_xll.OPTION.GAMMA($C12,$D12,CODE($E12),$F12,$G12,$B12)</f>
+        <v>2.1379335387637463E-2</v>
+      </c>
+      <c r="K12" s="4" cm="1">
+        <f t="array" ref="K12">_xll.OPTION.VEGA($C12,$D12,CODE($E12),$F12,$G12,$B12)</f>
+        <v>12.934497909520667</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.01</v>
       </c>
@@ -851,11 +1379,20 @@
         <f t="array" ref="H13">_xll.OPTION.VALUE(C13, D13, CODE(E13), F13, G13, B13)</f>
         <v>0.99815200408603022</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I13" s="4" cm="1">
+        <f t="array" ref="I13">_xll.OPTION.DELTA($C13,$D13,CODE($E13),$F13,$G13,$B13)</f>
+        <v>0.18994423865446119</v>
+      </c>
+      <c r="J13" s="4" cm="1">
+        <f t="array" ref="J13">_xll.OPTION.GAMMA($C13,$D13,CODE($E13),$F13,$G13,$B13)</f>
+        <v>2.7131631708287224E-2</v>
+      </c>
+      <c r="K13" s="4" cm="1">
+        <f t="array" ref="K13">_xll.OPTION.VEGA($C13,$D13,CODE($E13),$F13,$G13,$B13)</f>
+        <v>13.565815854143613</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.01</v>
       </c>
@@ -878,11 +1415,20 @@
         <f t="array" ref="H14">_xll.OPTION.VALUE(C14, D14, CODE(E14), F14, G14, B14)</f>
         <v>5.8470488441929005</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I14" s="4" cm="1">
+        <f t="array" ref="I14">_xll.OPTION.DELTA($C14,$D14,CODE($E14),$F14,$G14,$B14)</f>
+        <v>-0.46348144099915578</v>
+      </c>
+      <c r="J14" s="4" cm="1">
+        <f t="array" ref="J14">_xll.OPTION.GAMMA($C14,$D14,CODE($E14),$F14,$G14,$B14)</f>
+        <v>2.6484645653990283E-2</v>
+      </c>
+      <c r="K14" s="4" cm="1">
+        <f t="array" ref="K14">_xll.OPTION.VEGA($C14,$D14,CODE($E14),$F14,$G14,$B14)</f>
+        <v>19.863484240492713</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.01</v>
       </c>
@@ -905,24 +1451,336 @@
         <f t="array" ref="H15">_xll.OPTION.VALUE(C15, D15, CODE(E15), F15, G15, B15)</f>
         <v>5.3772721530958307</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I15" s="4" cm="1">
+        <f t="array" ref="I15">_xll.OPTION.DELTA($C15,$D15,CODE($E15),$F15,$G15,$B15)</f>
+        <v>-0.457764986688386</v>
+      </c>
+      <c r="J15" s="4" cm="1">
+        <f t="array" ref="J15">_xll.OPTION.GAMMA($C15,$D15,CODE($E15),$F15,$G15,$B15)</f>
+        <v>2.8051246304186241E-2</v>
+      </c>
+      <c r="K15" s="4" cm="1">
+        <f t="array" ref="K15">_xll.OPTION.VEGA($C15,$D15,CODE($E15),$F15,$G15,$B15)</f>
+        <v>28.051246304186257</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H19" s="3"/>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.01</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="3" cm="1">
+        <f t="array" ref="H17">_xll.OPTION.VALUE(C17, D17, CODE(E17), F17, G17, B17)</f>
+        <v>3.8591823289540264</v>
+      </c>
+      <c r="I17" s="4" cm="1">
+        <f t="array" ref="I17">(_xll.OPTION.VALUE($C17 + eps,$D17,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.VALUE($C17 - eps,$D17,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
+        <v>-0.47010735596542119</v>
+      </c>
+      <c r="J17" s="4" cm="1">
+        <f t="array" ref="J17">(_xll.OPTION.DELTA($C17 + eps,$D17,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.DELTA($C17 - eps,$D17,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
+        <v>3.9782183161585216E-2</v>
+      </c>
+      <c r="K17" s="4" cm="1">
+        <f t="array" ref="K17">(_xll.OPTION.VALUE($C17,$D17 + eps,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.VALUE($C17,$D17 - eps,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
+        <v>19.891091576786923</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.01</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="3" cm="1">
+        <f t="array" ref="H18">_xll.OPTION.VALUE(C18, D18, CODE(E18), F18, G18, B18)</f>
+        <v>4.1088700892080237</v>
+      </c>
+      <c r="I18" s="4" cm="1">
+        <f t="array" ref="I18">(_xll.OPTION.VALUE($C18 + eps,$D18,CODE($E18),$F18,$G18,$B18) - _xll.OPTION.VALUE($C18 - eps,$D18,CODE($E18),$F18,$G18,$B18))/(2*eps)</f>
+        <v>0.52989264408775938</v>
+      </c>
+      <c r="J18" s="4" cm="1">
+        <f t="array" ref="J18">(_xll.OPTION.DELTA($C18 + eps,$D18,CODE($E18),$F18,$G18,$B18) - _xll.OPTION.DELTA($C18 - eps,$D18,CODE($E18),$F18,$G18,$B18))/(2*eps)</f>
+        <v>3.9782183161030105E-2</v>
+      </c>
+      <c r="K18" s="4" cm="1">
+        <f t="array" ref="K18">(_xll.OPTION.VALUE($C18,$D18 + eps,CODE($E18),$F18,$G18,$B18) - _xll.OPTION.VALUE($C18,$D18 - eps,CODE($E18),$F18,$G18,$B18))/(2*eps)</f>
+        <v>19.89109157682023</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.01</v>
+      </c>
+      <c r="C19">
+        <v>110</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="3" cm="1">
+        <f t="array" ref="H19">_xll.OPTION.VALUE(C19, D19, CODE(E19), F19, G19, B19)</f>
+        <v>11.158704959381202</v>
+      </c>
+      <c r="I19" s="4" cm="1">
+        <f t="array" ref="I19">(_xll.OPTION.VALUE($C19 + eps,$D19,CODE($E19),$F19,$G19,$B19) - _xll.OPTION.VALUE($C19 - eps,$D19,CODE($E19),$F19,$G19,$B19))/(2*eps)</f>
+        <v>0.84804902760637901</v>
+      </c>
+      <c r="J19" s="4" cm="1">
+        <f t="array" ref="J19">(_xll.OPTION.DELTA($C19 + eps,$D19,CODE($E19),$F19,$G19,$B19) - _xll.OPTION.DELTA($C19 - eps,$D19,CODE($E19),$F19,$G19,$B19))/(2*eps)</f>
+        <v>2.1379335389259957E-2</v>
+      </c>
+      <c r="K19" s="4" cm="1">
+        <f t="array" ref="K19">(_xll.OPTION.VALUE($C19,$D19 + eps,CODE($E19),$F19,$G19,$B19) - _xll.OPTION.VALUE($C19,$D19 - eps,CODE($E19),$F19,$G19,$B19))/(2*eps)</f>
+        <v>12.934496852103905</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.01</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>110</v>
+      </c>
+      <c r="G20">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="3" cm="1">
+        <f t="array" ref="H20">_xll.OPTION.VALUE(C20, D20, CODE(E20), F20, G20, B20)</f>
+        <v>0.99815200408603022</v>
+      </c>
+      <c r="I20" s="4" cm="1">
+        <f t="array" ref="I20">(_xll.OPTION.VALUE($C20 + eps,$D20,CODE($E20),$F20,$G20,$B20) - _xll.OPTION.VALUE($C20 - eps,$D20,CODE($E20),$F20,$G20,$B20))/(2*eps)</f>
+        <v>0.18994423864382437</v>
+      </c>
+      <c r="J20" s="4" cm="1">
+        <f t="array" ref="J20">(_xll.OPTION.DELTA($C20 + eps,$D20,CODE($E20),$F20,$G20,$B20) - _xll.OPTION.DELTA($C20 - eps,$D20,CODE($E20),$F20,$G20,$B20))/(2*eps)</f>
+        <v>2.71316317090875E-2</v>
+      </c>
+      <c r="K20" s="4" cm="1">
+        <f t="array" ref="K20">(_xll.OPTION.VALUE($C20,$D20 + eps,CODE($E20),$F20,$G20,$B20) - _xll.OPTION.VALUE($C20,$D20 - eps,CODE($E20),$F20,$G20,$B20))/(2*eps)</f>
+        <v>13.565814808965126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.01</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>0.25</v>
+      </c>
+      <c r="H21" s="3" cm="1">
+        <f t="array" ref="H21">_xll.OPTION.VALUE(C21, D21, CODE(E21), F21, G21, B21)</f>
+        <v>5.8470488441929005</v>
+      </c>
+      <c r="I21" s="4" cm="1">
+        <f t="array" ref="I21">(_xll.OPTION.VALUE($C21 + eps,$D21,CODE($E21),$F21,$G21,$B21) - _xll.OPTION.VALUE($C21 - eps,$D21,CODE($E21),$F21,$G21,$B21))/(2*eps)</f>
+        <v>-0.46348144102648092</v>
+      </c>
+      <c r="J21" s="4" cm="1">
+        <f t="array" ref="J21">(_xll.OPTION.DELTA($C21 + eps,$D21,CODE($E21),$F21,$G21,$B21) - _xll.OPTION.DELTA($C21 - eps,$D21,CODE($E21),$F21,$G21,$B21))/(2*eps)</f>
+        <v>2.6484645654911709E-2</v>
+      </c>
+      <c r="K21" s="4" cm="1">
+        <f t="array" ref="K21">(_xll.OPTION.VALUE($C21,$D21 + eps,CODE($E21),$F21,$G21,$B21) - _xll.OPTION.VALUE($C21,$D21 - eps,CODE($E21),$F21,$G21,$B21))/(2*eps)</f>
+        <v>19.863484238191731</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.01</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="3" cm="1">
+        <f t="array" ref="H22">_xll.OPTION.VALUE(C22, D22, CODE(E22), F22, G22, B22)</f>
+        <v>5.3772721530958307</v>
+      </c>
+      <c r="I22" s="4" cm="1">
+        <f t="array" ref="I22">(_xll.OPTION.VALUE($C22 + eps,$D22,CODE($E22),$F22,$G22,$B22) - _xll.OPTION.VALUE($C22 - eps,$D22,CODE($E22),$F22,$G22,$B22))/(2*eps)</f>
+        <v>-0.45776498669880539</v>
+      </c>
+      <c r="J22" s="4" cm="1">
+        <f t="array" ref="J22">(_xll.OPTION.DELTA($C22 + eps,$D22,CODE($E22),$F22,$G22,$B22) - _xll.OPTION.DELTA($C22 - eps,$D22,CODE($E22),$F22,$G22,$B22))/(2*eps)</f>
+        <v>2.8051246306892708E-2</v>
+      </c>
+      <c r="K22" s="4" cm="1">
+        <f t="array" ref="K22">(_xll.OPTION.VALUE($C22,$D22 + eps,CODE($E22),$F22,$G22,$B22) - _xll.OPTION.VALUE($C22,$D22 - eps,CODE($E22),$F22,$G22,$B22))/(2*eps)</f>
+        <v>28.051246293987475</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="5">
+        <f>(I10-I17)/ABS(I10)</f>
+        <v>3.8962526858714442E-11</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" ref="J24:K24" si="0">(J10-J17)/ABS(J10)</f>
+        <v>-2.1002171037053864E-11</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8037882511377157E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="5">
+        <f t="shared" ref="I25:K25" si="1">(I11-I18)/ABS(I11)</f>
+        <v>-6.5794460381141241E-11</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.0483990665837273E-12</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7870437247731517E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:K26" si="2">(I12-I19)/ABS(I12)</f>
+        <v>-9.3449845933064505E-11</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.5890750416554756E-11</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="2"/>
+        <v>8.1751666709303758E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="5">
+        <f t="shared" ref="I27:K27" si="3">(I13-I20)/ABS(I13)</f>
+        <v>5.5999723022285385E-11</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.9496070134292289E-11</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="3"/>
+        <v>7.7045015131779243E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="5">
+        <f t="shared" ref="I28:K28" si="4">(I14-I21)/ABS(I14)</f>
+        <v>5.8956281162143686E-11</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.4790955555105605E-11</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1583982385851384E-10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="5">
+        <f t="shared" ref="I29:K29" si="5">(I15-I22)/ABS(I15)</f>
+        <v>2.2761434093797665E-11</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="5"/>
+        <v>-9.6482950012733886E-11</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="5"/>
+        <v>3.6357679628793995E-10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/hw7.xlsx
+++ b/excel/hw7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\xlladdins\FRE6233\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\keithalewis\FRE6233\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A7E79-827C-40DE-BA9A-5C58B3154E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D81C74-CEE9-4FE6-AD5F-04348BFF9029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="19170" windowHeight="10170" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="14520" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Black-Scholes/Merton</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>eps</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1109,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1262,7 @@
         <v>0.2</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -1269,19 +1272,19 @@
       </c>
       <c r="H10" s="3" cm="1">
         <f t="array" ref="H10">_xll.OPTION.VALUE(C10, D10, CODE(E10), F10, G10, B10)</f>
-        <v>3.8591823289540264</v>
+        <v>0.48880394316081516</v>
       </c>
       <c r="I10" s="4" cm="1">
         <f t="array" ref="I10">_xll.OPTION.DELTA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
-        <v>-0.47010735594710462</v>
+        <v>3.9782183160749704E-2</v>
       </c>
       <c r="J10" s="4" cm="1">
         <f t="array" ref="J10">_xll.OPTION.GAMMA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
-        <v>3.9782183160749704E-2</v>
+        <v>-3.9881638618651563E-4</v>
       </c>
       <c r="K10" s="4" cm="1">
         <f t="array" ref="K10">_xll.OPTION.VEGA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
-        <v>19.891091580374855</v>
+        <v>2.9836637370559291E-2</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1469,38 +1472,44 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
+        <f>B10</f>
         <v>0.01</v>
       </c>
       <c r="C17">
+        <f t="shared" ref="C17:G17" si="0">C10</f>
         <v>100</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G17">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="H17" s="3" cm="1">
         <f t="array" ref="H17">_xll.OPTION.VALUE(C17, D17, CODE(E17), F17, G17, B17)</f>
-        <v>3.8591823289540264</v>
+        <v>0.48880394316081516</v>
       </c>
       <c r="I17" s="4" cm="1">
         <f t="array" ref="I17">(_xll.OPTION.VALUE($C17 + eps,$D17,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.VALUE($C17 - eps,$D17,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
-        <v>-0.47010735596542119</v>
+        <v>3.9782183161862772E-2</v>
       </c>
       <c r="J17" s="4" cm="1">
         <f t="array" ref="J17">(_xll.OPTION.DELTA($C17 + eps,$D17,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.DELTA($C17 - eps,$D17,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
-        <v>3.9782183161585216E-2</v>
+        <v>-2.9836637365637797E-4</v>
       </c>
       <c r="K17" s="4" cm="1">
         <f t="array" ref="K17">(_xll.OPTION.VALUE($C17,$D17 + eps,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.VALUE($C17,$D17 - eps,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
-        <v>19.891091576786923</v>
+        <v>-0.14918319927281765</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
@@ -1511,21 +1520,27 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
+        <f t="shared" ref="B18:G18" si="1">B11</f>
         <v>0.01</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
       </c>
       <c r="F18">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G18">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="H18" s="3" cm="1">
@@ -1547,21 +1562,27 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
+        <f t="shared" ref="B19:G19" si="2">B12</f>
         <v>0.01</v>
       </c>
       <c r="C19">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="D19">
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
       </c>
       <c r="F19">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G19">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="H19" s="3" cm="1">
@@ -1583,21 +1604,27 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
+        <f t="shared" ref="B20:G20" si="3">B13</f>
         <v>0.01</v>
       </c>
       <c r="C20">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="D20">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
       </c>
       <c r="F20">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="G20">
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="H20" s="3" cm="1">
@@ -1619,21 +1646,27 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
+        <f t="shared" ref="B21:G21" si="4">B14</f>
         <v>0.01</v>
       </c>
       <c r="C21">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D21">
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
+      <c r="E21" t="str">
+        <f t="shared" si="4"/>
+        <v>P</v>
       </c>
       <c r="F21">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="G21">
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="H21" s="3" cm="1">
@@ -1655,21 +1688,27 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
+        <f t="shared" ref="B22:G22" si="5">B15</f>
         <v>0.01</v>
       </c>
       <c r="C22">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="D22">
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E22" t="s">
-        <v>11</v>
+      <c r="E22" t="str">
+        <f t="shared" si="5"/>
+        <v>P</v>
       </c>
       <c r="F22">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G22">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="H22" s="3" cm="1">
@@ -1692,84 +1731,84 @@
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I24" s="5">
         <f>(I10-I17)/ABS(I10)</f>
-        <v>3.8962526858714442E-11</v>
+        <v>-2.7979057022288933E-11</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" ref="J24:K24" si="0">(J10-J17)/ABS(J10)</f>
-        <v>-2.1002171037053864E-11</v>
+        <f t="shared" ref="J24:K24" si="6">(J10-J17)/ABS(J10)</f>
+        <v>-0.25187032431300327</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8037882511377157E-10</v>
+        <f t="shared" si="6"/>
+        <v>6.0000004162674587</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I25" s="5">
-        <f t="shared" ref="I25:K25" si="1">(I11-I18)/ABS(I11)</f>
+        <f t="shared" ref="I25:K25" si="7">(I11-I18)/ABS(I11)</f>
         <v>-6.5794460381141241E-11</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-7.0483990665837273E-12</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.7870437247731517E-10</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I26" s="5">
-        <f t="shared" ref="I26:K26" si="2">(I12-I19)/ABS(I12)</f>
+        <f t="shared" ref="I26:K26" si="8">(I12-I19)/ABS(I12)</f>
         <v>-9.3449845933064505E-11</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-7.5890750416554756E-11</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8.1751666709303758E-8</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I27" s="5">
-        <f t="shared" ref="I27:K27" si="3">(I13-I20)/ABS(I13)</f>
+        <f t="shared" ref="I27:K27" si="9">(I13-I20)/ABS(I13)</f>
         <v>5.5999723022285385E-11</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-2.9496070134292289E-11</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.7045015131779243E-8</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I28" s="5">
-        <f t="shared" ref="I28:K28" si="4">(I14-I21)/ABS(I14)</f>
+        <f t="shared" ref="I28:K28" si="10">(I14-I21)/ABS(I14)</f>
         <v>5.8956281162143686E-11</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-3.4790955555105605E-11</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.1583982385851384E-10</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I29" s="5">
-        <f t="shared" ref="I29:K29" si="5">(I15-I22)/ABS(I15)</f>
+        <f t="shared" ref="I29:K29" si="11">(I15-I22)/ABS(I15)</f>
         <v>2.2761434093797665E-11</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.6482950012733886E-11</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.6357679628793995E-10</v>
       </c>
     </row>

--- a/excel/hw7.xlsx
+++ b/excel/hw7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\keithalewis\FRE6233\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D81C74-CEE9-4FE6-AD5F-04348BFF9029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C6F2D-C892-4CF7-B9A8-C2E782D9C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="14520" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
   </bookViews>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,7 +95,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Omitting last argument defaults to r =0.</t>
+          <t>Omitting last argument defaults to r = 0.</t>
         </r>
       </text>
     </comment>
@@ -667,13 +668,13 @@
     <t>P</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>eps</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -776,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,6 +789,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -1106,10 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566DE474-7680-4E6F-8EA1-92B34E11CB88}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1217,7 @@
       <c r="D7">
         <v>0.2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7">
@@ -1261,7 +1263,7 @@
       <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10">
@@ -1272,19 +1274,19 @@
       </c>
       <c r="H10" s="3" cm="1">
         <f t="array" ref="H10">_xll.OPTION.VALUE(C10, D10, CODE(E10), F10, G10, B10)</f>
-        <v>0.48880394316081516</v>
+        <v>0.50869917923664487</v>
       </c>
       <c r="I10" s="4" cm="1">
         <f t="array" ref="I10">_xll.OPTION.DELTA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
-        <v>3.9782183160749704E-2</v>
+        <v>-3.9782183160749704E-2</v>
       </c>
       <c r="J10" s="4" cm="1">
         <f t="array" ref="J10">_xll.OPTION.GAMMA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
-        <v>-3.9881638618651563E-4</v>
+        <v>2.9836637370562872E-4</v>
       </c>
       <c r="K10" s="4" cm="1">
         <f t="array" ref="K10">_xll.OPTION.VEGA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
-        <v>2.9836637370559291E-2</v>
+        <v>0.14918318685281437</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1297,8 +1299,8 @@
       <c r="D11">
         <v>0.2</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -1308,19 +1310,19 @@
       </c>
       <c r="H11" s="3" cm="1">
         <f t="array" ref="H11">_xll.OPTION.VALUE(C11, D11, CODE(E11), F11, G11, B11)</f>
-        <v>4.1088700892080237</v>
+        <v>0.48880394316081516</v>
       </c>
       <c r="I11" s="4" cm="1">
         <f t="array" ref="I11">_xll.OPTION.DELTA($C11,$D11,CODE($E11),$F11,$G11,$B11)</f>
-        <v>0.52989264405289538</v>
+        <v>3.9782183160749704E-2</v>
       </c>
       <c r="J11" s="4" cm="1">
         <f t="array" ref="J11">_xll.OPTION.GAMMA($C11,$D11,CODE($E11),$F11,$G11,$B11)</f>
-        <v>3.9782183160749704E-2</v>
+        <v>-2.9836637370562872E-4</v>
       </c>
       <c r="K11" s="4" cm="1">
         <f t="array" ref="K11">_xll.OPTION.VEGA($C11,$D11,CODE($E11),$F11,$G11,$B11)</f>
-        <v>19.891091580374855</v>
+        <v>-0.14918318685281437</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -1333,8 +1335,8 @@
       <c r="D12">
         <v>0.2</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -1344,19 +1346,19 @@
       </c>
       <c r="H12" s="3" cm="1">
         <f t="array" ref="H12">_xll.OPTION.VALUE(C12, D12, CODE(E12), F12, G12, B12)</f>
-        <v>11.158704959381202</v>
+        <v>0.82126688068602982</v>
       </c>
       <c r="I12" s="4" cm="1">
         <f t="array" ref="I12">_xll.OPTION.DELTA($C12,$D12,CODE($E12),$F12,$G12,$B12)</f>
-        <v>0.84804902752712896</v>
+        <v>2.351726892640121E-2</v>
       </c>
       <c r="J12" s="4" cm="1">
         <f t="array" ref="J12">_xll.OPTION.GAMMA($C12,$D12,CODE($E12),$F12,$G12,$B12)</f>
-        <v>2.1379335387637463E-2</v>
+        <v>-2.1980133152999727E-3</v>
       </c>
       <c r="K12" s="4" cm="1">
         <f t="array" ref="K12">_xll.OPTION.VEGA($C12,$D12,CODE($E12),$F12,$G12,$B12)</f>
-        <v>12.934497909520667</v>
+        <v>-1.3297980557564837</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -1369,8 +1371,8 @@
       <c r="D13">
         <v>0.2</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F13">
         <v>110</v>
@@ -1380,19 +1382,19 @@
       </c>
       <c r="H13" s="3" cm="1">
         <f t="array" ref="H13">_xll.OPTION.VALUE(C13, D13, CODE(E13), F13, G13, B13)</f>
-        <v>0.99815200408603022</v>
+        <v>0.1636024714669099</v>
       </c>
       <c r="I13" s="4" cm="1">
         <f t="array" ref="I13">_xll.OPTION.DELTA($C13,$D13,CODE($E13),$F13,$G13,$B13)</f>
-        <v>0.18994423865446119</v>
+        <v>2.4665119734806569E-2</v>
       </c>
       <c r="J13" s="4" cm="1">
         <f t="array" ref="J13">_xll.OPTION.GAMMA($C13,$D13,CODE($E13),$F13,$G13,$B13)</f>
-        <v>2.7131631708287224E-2</v>
+        <v>2.1658485988085637E-3</v>
       </c>
       <c r="K13" s="4" cm="1">
         <f t="array" ref="K13">_xll.OPTION.VEGA($C13,$D13,CODE($E13),$F13,$G13,$B13)</f>
-        <v>13.565815854143613</v>
+        <v>1.0829242994042823</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -1405,8 +1407,8 @@
       <c r="D14">
         <v>0.3</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -1416,19 +1418,19 @@
       </c>
       <c r="H14" s="3" cm="1">
         <f t="array" ref="H14">_xll.OPTION.VALUE(C14, D14, CODE(E14), F14, G14, B14)</f>
-        <v>5.8470488441929005</v>
+        <v>0.52195192944108482</v>
       </c>
       <c r="I14" s="4" cm="1">
         <f t="array" ref="I14">_xll.OPTION.DELTA($C14,$D14,CODE($E14),$F14,$G14,$B14)</f>
-        <v>-0.46348144099915578</v>
+        <v>-2.6484645653990283E-2</v>
       </c>
       <c r="J14" s="4" cm="1">
         <f t="array" ref="J14">_xll.OPTION.GAMMA($C14,$D14,CODE($E14),$F14,$G14,$B14)</f>
-        <v>2.6484645653990283E-2</v>
+        <v>1.6185061232994242E-4</v>
       </c>
       <c r="K14" s="4" cm="1">
         <f t="array" ref="K14">_xll.OPTION.VEGA($C14,$D14,CODE($E14),$F14,$G14,$B14)</f>
-        <v>19.863484240492713</v>
+        <v>0.12138795924745681</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1441,8 +1443,8 @@
       <c r="D15">
         <v>0.2</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -1452,22 +1454,23 @@
       </c>
       <c r="H15" s="3" cm="1">
         <f t="array" ref="H15">_xll.OPTION.VALUE(C15, D15, CODE(E15), F15, G15, B15)</f>
-        <v>5.3772721530958307</v>
+        <v>0.5115377082193443</v>
       </c>
       <c r="I15" s="4" cm="1">
         <f t="array" ref="I15">_xll.OPTION.DELTA($C15,$D15,CODE($E15),$F15,$G15,$B15)</f>
-        <v>-0.457764986688386</v>
+        <v>-2.8051246304186241E-2</v>
       </c>
       <c r="J15" s="4" cm="1">
         <f t="array" ref="J15">_xll.OPTION.GAMMA($C15,$D15,CODE($E15),$F15,$G15,$B15)</f>
-        <v>2.8051246304186241E-2</v>
+        <v>2.1038434728139668E-4</v>
       </c>
       <c r="K15" s="4" cm="1">
         <f t="array" ref="K15">_xll.OPTION.VEGA($C15,$D15,CODE($E15),$F15,$G15,$B15)</f>
-        <v>28.051246304186257</v>
+        <v>0.21038434728139674</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -1483,9 +1486,9 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
+        <v>Q</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1497,22 +1500,22 @@
       </c>
       <c r="H17" s="3" cm="1">
         <f t="array" ref="H17">_xll.OPTION.VALUE(C17, D17, CODE(E17), F17, G17, B17)</f>
-        <v>0.48880394316081516</v>
+        <v>0.50869917923664487</v>
       </c>
       <c r="I17" s="4" cm="1">
         <f t="array" ref="I17">(_xll.OPTION.VALUE($C17 + eps,$D17,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.VALUE($C17 - eps,$D17,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
-        <v>3.9782183161862772E-2</v>
+        <v>-3.9782183161585216E-2</v>
       </c>
       <c r="J17" s="4" cm="1">
         <f t="array" ref="J17">(_xll.OPTION.DELTA($C17 + eps,$D17,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.DELTA($C17 - eps,$D17,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
-        <v>-2.9836637365637797E-4</v>
+        <v>2.9836637365637797E-4</v>
       </c>
       <c r="K17" s="4" cm="1">
         <f t="array" ref="K17">(_xll.OPTION.VALUE($C17,$D17 + eps,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.VALUE($C17,$D17 - eps,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
-        <v>-0.14918319927281765</v>
+        <v>0.14918319927337276</v>
       </c>
       <c r="M17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1E-4</v>
@@ -1531,9 +1534,9 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
@@ -1545,19 +1548,19 @@
       </c>
       <c r="H18" s="3" cm="1">
         <f t="array" ref="H18">_xll.OPTION.VALUE(C18, D18, CODE(E18), F18, G18, B18)</f>
-        <v>4.1088700892080237</v>
+        <v>0.48880394316081516</v>
       </c>
       <c r="I18" s="4" cm="1">
         <f t="array" ref="I18">(_xll.OPTION.VALUE($C18 + eps,$D18,CODE($E18),$F18,$G18,$B18) - _xll.OPTION.VALUE($C18 - eps,$D18,CODE($E18),$F18,$G18,$B18))/(2*eps)</f>
-        <v>0.52989264408775938</v>
+        <v>3.9782183161862772E-2</v>
       </c>
       <c r="J18" s="4" cm="1">
         <f t="array" ref="J18">(_xll.OPTION.DELTA($C18 + eps,$D18,CODE($E18),$F18,$G18,$B18) - _xll.OPTION.DELTA($C18 - eps,$D18,CODE($E18),$F18,$G18,$B18))/(2*eps)</f>
-        <v>3.9782183161030105E-2</v>
+        <v>-2.9836637365637797E-4</v>
       </c>
       <c r="K18" s="4" cm="1">
         <f t="array" ref="K18">(_xll.OPTION.VALUE($C18,$D18 + eps,CODE($E18),$F18,$G18,$B18) - _xll.OPTION.VALUE($C18,$D18 - eps,CODE($E18),$F18,$G18,$B18))/(2*eps)</f>
-        <v>19.89109157682023</v>
+        <v>-0.14918319927281765</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -1573,9 +1576,9 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -1587,19 +1590,19 @@
       </c>
       <c r="H19" s="3" cm="1">
         <f t="array" ref="H19">_xll.OPTION.VALUE(C19, D19, CODE(E19), F19, G19, B19)</f>
-        <v>11.158704959381202</v>
+        <v>0.82126688068602982</v>
       </c>
       <c r="I19" s="4" cm="1">
         <f t="array" ref="I19">(_xll.OPTION.VALUE($C19 + eps,$D19,CODE($E19),$F19,$G19,$B19) - _xll.OPTION.VALUE($C19 - eps,$D19,CODE($E19),$F19,$G19,$B19))/(2*eps)</f>
-        <v>0.84804902760637901</v>
+        <v>2.3517268928352486E-2</v>
       </c>
       <c r="J19" s="4" cm="1">
         <f t="array" ref="J19">(_xll.OPTION.DELTA($C19 + eps,$D19,CODE($E19),$F19,$G19,$B19) - _xll.OPTION.DELTA($C19 - eps,$D19,CODE($E19),$F19,$G19,$B19))/(2*eps)</f>
-        <v>2.1379335389259957E-2</v>
+        <v>-2.1980133153853831E-3</v>
       </c>
       <c r="K19" s="4" cm="1">
         <f t="array" ref="K19">(_xll.OPTION.VALUE($C19,$D19 + eps,CODE($E19),$F19,$G19,$B19) - _xll.OPTION.VALUE($C19,$D19 - eps,CODE($E19),$F19,$G19,$B19))/(2*eps)</f>
-        <v>12.934496852103905</v>
+        <v>-1.3297980621290728</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -1615,9 +1618,9 @@
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
@@ -1629,19 +1632,19 @@
       </c>
       <c r="H20" s="3" cm="1">
         <f t="array" ref="H20">_xll.OPTION.VALUE(C20, D20, CODE(E20), F20, G20, B20)</f>
-        <v>0.99815200408603022</v>
+        <v>0.1636024714669099</v>
       </c>
       <c r="I20" s="4" cm="1">
         <f t="array" ref="I20">(_xll.OPTION.VALUE($C20 + eps,$D20,CODE($E20),$F20,$G20,$B20) - _xll.OPTION.VALUE($C20 - eps,$D20,CODE($E20),$F20,$G20,$B20))/(2*eps)</f>
-        <v>0.18994423864382437</v>
+        <v>2.466511973497898E-2</v>
       </c>
       <c r="J20" s="4" cm="1">
         <f t="array" ref="J20">(_xll.OPTION.DELTA($C20 + eps,$D20,CODE($E20),$F20,$G20,$B20) - _xll.OPTION.DELTA($C20 - eps,$D20,CODE($E20),$F20,$G20,$B20))/(2*eps)</f>
-        <v>2.71316317090875E-2</v>
+        <v>2.1658485987834097E-3</v>
       </c>
       <c r="K20" s="4" cm="1">
         <f t="array" ref="K20">(_xll.OPTION.VALUE($C20,$D20 + eps,CODE($E20),$F20,$G20,$B20) - _xll.OPTION.VALUE($C20,$D20 - eps,CODE($E20),$F20,$G20,$B20))/(2*eps)</f>
-        <v>13.565814808965126</v>
+        <v>1.0829243382798337</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -1657,9 +1660,9 @@
         <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>P</v>
+        <v>Q</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
@@ -1671,19 +1674,19 @@
       </c>
       <c r="H21" s="3" cm="1">
         <f t="array" ref="H21">_xll.OPTION.VALUE(C21, D21, CODE(E21), F21, G21, B21)</f>
-        <v>5.8470488441929005</v>
+        <v>0.52195192944108482</v>
       </c>
       <c r="I21" s="4" cm="1">
         <f t="array" ref="I21">(_xll.OPTION.VALUE($C21 + eps,$D21,CODE($E21),$F21,$G21,$B21) - _xll.OPTION.VALUE($C21 - eps,$D21,CODE($E21),$F21,$G21,$B21))/(2*eps)</f>
-        <v>-0.46348144102648092</v>
+        <v>-2.6484645654911709E-2</v>
       </c>
       <c r="J21" s="4" cm="1">
         <f t="array" ref="J21">(_xll.OPTION.DELTA($C21 + eps,$D21,CODE($E21),$F21,$G21,$B21) - _xll.OPTION.DELTA($C21 - eps,$D21,CODE($E21),$F21,$G21,$B21))/(2*eps)</f>
-        <v>2.6484645654911709E-2</v>
+        <v>1.6185061232215636E-4</v>
       </c>
       <c r="K21" s="4" cm="1">
         <f t="array" ref="K21">(_xll.OPTION.VALUE($C21,$D21 + eps,CODE($E21),$F21,$G21,$B21) - _xll.OPTION.VALUE($C21,$D21 - eps,CODE($E21),$F21,$G21,$B21))/(2*eps)</f>
-        <v>19.863484238191731</v>
+        <v>0.12138796169458566</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -1699,9 +1702,9 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v>Q</v>
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
@@ -1713,103 +1716,103 @@
       </c>
       <c r="H22" s="3" cm="1">
         <f t="array" ref="H22">_xll.OPTION.VALUE(C22, D22, CODE(E22), F22, G22, B22)</f>
-        <v>5.3772721530958307</v>
+        <v>0.5115377082193443</v>
       </c>
       <c r="I22" s="4" cm="1">
         <f t="array" ref="I22">(_xll.OPTION.VALUE($C22 + eps,$D22,CODE($E22),$F22,$G22,$B22) - _xll.OPTION.VALUE($C22 - eps,$D22,CODE($E22),$F22,$G22,$B22))/(2*eps)</f>
-        <v>-0.45776498669880539</v>
+        <v>-2.8051246306892708E-2</v>
       </c>
       <c r="J22" s="4" cm="1">
         <f t="array" ref="J22">(_xll.OPTION.DELTA($C22 + eps,$D22,CODE($E22),$F22,$G22,$B22) - _xll.OPTION.DELTA($C22 - eps,$D22,CODE($E22),$F22,$G22,$B22))/(2*eps)</f>
-        <v>2.8051246306892708E-2</v>
+        <v>2.1038434728712363E-4</v>
       </c>
       <c r="K22" s="4" cm="1">
         <f t="array" ref="K22">(_xll.OPTION.VALUE($C22,$D22 + eps,CODE($E22),$F22,$G22,$B22) - _xll.OPTION.VALUE($C22,$D22 - eps,CODE($E22),$F22,$G22,$B22))/(2*eps)</f>
-        <v>28.051246293987475</v>
+        <v>0.21038436478104661</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I24" s="5">
         <f>(I10-I17)/ABS(I10)</f>
-        <v>-2.7979057022288933E-11</v>
+        <v>2.1002171037053864E-11</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" ref="J24:K24" si="6">(J10-J17)/ABS(J10)</f>
-        <v>-0.25187032431300327</v>
+        <v>1.6506803509796087E-10</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="6"/>
-        <v>6.0000004162674587</v>
+        <v>-8.3257092500668951E-8</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I25" s="5">
         <f t="shared" ref="I25:K25" si="7">(I11-I18)/ABS(I11)</f>
-        <v>-6.5794460381141241E-11</v>
+        <v>-2.7979057022288933E-11</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="7"/>
-        <v>-7.0483990665837273E-12</v>
+        <v>-1.6506803509796087E-10</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="7"/>
-        <v>1.7870437247731517E-10</v>
+        <v>8.3253371494810158E-8</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I26" s="5">
         <f t="shared" ref="I26:K26" si="8">(I12-I19)/ABS(I12)</f>
-        <v>-9.3449845933064505E-11</v>
+        <v>-8.2972047157496815E-11</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="8"/>
-        <v>-7.5890750416554756E-11</v>
+        <v>3.8858004538825432E-11</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="8"/>
-        <v>8.1751666709303758E-8</v>
+        <v>4.7921480223816371E-9</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I27" s="5">
         <f t="shared" ref="I27:K27" si="9">(I13-I20)/ABS(I13)</f>
-        <v>5.5999723022285385E-11</v>
+        <v>-6.990061215355985E-12</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="9"/>
-        <v>-2.9496070134292289E-11</v>
+        <v>1.1613888476031938E-11</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="9"/>
-        <v>7.7045015131779243E-8</v>
+        <v>-3.5898678666687006E-8</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I28" s="5">
         <f t="shared" ref="I28:K28" si="10">(I14-I21)/ABS(I14)</f>
-        <v>5.8956281162143686E-11</v>
+        <v>3.4790955555105605E-11</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="10"/>
-        <v>-3.4790955555105605E-11</v>
+        <v>4.8106474633291612E-11</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="10"/>
-        <v>1.1583982385851384E-10</v>
+        <v>-2.0159568230276334E-8</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I29" s="5">
         <f t="shared" ref="I29:K29" si="11">(I15-I22)/ABS(I15)</f>
-        <v>2.2761434093797665E-11</v>
+        <v>9.6482950012733886E-11</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="11"/>
-        <v>-9.6482950012733886E-11</v>
+        <v>-2.7221348377161453E-11</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="11"/>
-        <v>3.6357679628793995E-10</v>
+        <v>-8.3179428955680577E-8</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">

--- a/excel/hw7.xlsx
+++ b/excel/hw7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\keithalewis\FRE6233\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C6F2D-C892-4CF7-B9A8-C2E782D9C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BB6F9B-A3E2-4D67-9520-0206EE63C5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="14520" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="25575" windowHeight="14520" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Black-Scholes/Merton</t>
   </si>
@@ -671,10 +671,7 @@
     <t>eps</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Q</t>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1110,9 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566DE474-7680-4E6F-8EA1-92B34E11CB88}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1264,7 +1259,7 @@
         <v>0.2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -1274,19 +1269,19 @@
       </c>
       <c r="H10" s="3" cm="1">
         <f t="array" ref="H10">_xll.OPTION.VALUE(C10, D10, CODE(E10), F10, G10, B10)</f>
-        <v>0.50869917923664487</v>
+        <v>3.8591823289540264</v>
       </c>
       <c r="I10" s="4" cm="1">
         <f t="array" ref="I10">_xll.OPTION.DELTA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
-        <v>-3.9782183160749704E-2</v>
+        <v>-0.47010735594710462</v>
       </c>
       <c r="J10" s="4" cm="1">
         <f t="array" ref="J10">_xll.OPTION.GAMMA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
-        <v>2.9836637370562872E-4</v>
+        <v>3.9782183160749704E-2</v>
       </c>
       <c r="K10" s="4" cm="1">
         <f t="array" ref="K10">_xll.OPTION.VEGA($C10,$D10,CODE($E10),$F10,$G10,$B10)</f>
-        <v>0.14918318685281437</v>
+        <v>19.891091580374855</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1310,19 +1305,19 @@
       </c>
       <c r="H11" s="3" cm="1">
         <f t="array" ref="H11">_xll.OPTION.VALUE(C11, D11, CODE(E11), F11, G11, B11)</f>
-        <v>0.48880394316081516</v>
+        <v>4.1088700892080237</v>
       </c>
       <c r="I11" s="4" cm="1">
         <f t="array" ref="I11">_xll.OPTION.DELTA($C11,$D11,CODE($E11),$F11,$G11,$B11)</f>
-        <v>3.9782183160749704E-2</v>
+        <v>0.52989264405289538</v>
       </c>
       <c r="J11" s="4" cm="1">
         <f t="array" ref="J11">_xll.OPTION.GAMMA($C11,$D11,CODE($E11),$F11,$G11,$B11)</f>
-        <v>-2.9836637370562872E-4</v>
+        <v>3.9782183160749704E-2</v>
       </c>
       <c r="K11" s="4" cm="1">
         <f t="array" ref="K11">_xll.OPTION.VEGA($C11,$D11,CODE($E11),$F11,$G11,$B11)</f>
-        <v>-0.14918318685281437</v>
+        <v>19.891091580374855</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -1346,19 +1341,19 @@
       </c>
       <c r="H12" s="3" cm="1">
         <f t="array" ref="H12">_xll.OPTION.VALUE(C12, D12, CODE(E12), F12, G12, B12)</f>
-        <v>0.82126688068602982</v>
+        <v>11.158704959381202</v>
       </c>
       <c r="I12" s="4" cm="1">
         <f t="array" ref="I12">_xll.OPTION.DELTA($C12,$D12,CODE($E12),$F12,$G12,$B12)</f>
-        <v>2.351726892640121E-2</v>
+        <v>0.84804902752712896</v>
       </c>
       <c r="J12" s="4" cm="1">
         <f t="array" ref="J12">_xll.OPTION.GAMMA($C12,$D12,CODE($E12),$F12,$G12,$B12)</f>
-        <v>-2.1980133152999727E-3</v>
+        <v>2.1379335387637463E-2</v>
       </c>
       <c r="K12" s="4" cm="1">
         <f t="array" ref="K12">_xll.OPTION.VEGA($C12,$D12,CODE($E12),$F12,$G12,$B12)</f>
-        <v>-1.3297980557564837</v>
+        <v>12.934497909520667</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -1382,19 +1377,19 @@
       </c>
       <c r="H13" s="3" cm="1">
         <f t="array" ref="H13">_xll.OPTION.VALUE(C13, D13, CODE(E13), F13, G13, B13)</f>
-        <v>0.1636024714669099</v>
+        <v>0.99815200408603022</v>
       </c>
       <c r="I13" s="4" cm="1">
         <f t="array" ref="I13">_xll.OPTION.DELTA($C13,$D13,CODE($E13),$F13,$G13,$B13)</f>
-        <v>2.4665119734806569E-2</v>
+        <v>0.18994423865446119</v>
       </c>
       <c r="J13" s="4" cm="1">
         <f t="array" ref="J13">_xll.OPTION.GAMMA($C13,$D13,CODE($E13),$F13,$G13,$B13)</f>
-        <v>2.1658485988085637E-3</v>
+        <v>2.7131631708287224E-2</v>
       </c>
       <c r="K13" s="4" cm="1">
         <f t="array" ref="K13">_xll.OPTION.VEGA($C13,$D13,CODE($E13),$F13,$G13,$B13)</f>
-        <v>1.0829242994042823</v>
+        <v>13.565815854143613</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -1408,7 +1403,7 @@
         <v>0.3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -1418,19 +1413,19 @@
       </c>
       <c r="H14" s="3" cm="1">
         <f t="array" ref="H14">_xll.OPTION.VALUE(C14, D14, CODE(E14), F14, G14, B14)</f>
-        <v>0.52195192944108482</v>
+        <v>5.8470488441929005</v>
       </c>
       <c r="I14" s="4" cm="1">
         <f t="array" ref="I14">_xll.OPTION.DELTA($C14,$D14,CODE($E14),$F14,$G14,$B14)</f>
-        <v>-2.6484645653990283E-2</v>
+        <v>-0.46348144099915578</v>
       </c>
       <c r="J14" s="4" cm="1">
         <f t="array" ref="J14">_xll.OPTION.GAMMA($C14,$D14,CODE($E14),$F14,$G14,$B14)</f>
-        <v>1.6185061232994242E-4</v>
+        <v>2.6484645653990283E-2</v>
       </c>
       <c r="K14" s="4" cm="1">
         <f t="array" ref="K14">_xll.OPTION.VEGA($C14,$D14,CODE($E14),$F14,$G14,$B14)</f>
-        <v>0.12138795924745681</v>
+        <v>19.863484240492713</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1444,7 +1439,7 @@
         <v>0.2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -1454,19 +1449,19 @@
       </c>
       <c r="H15" s="3" cm="1">
         <f t="array" ref="H15">_xll.OPTION.VALUE(C15, D15, CODE(E15), F15, G15, B15)</f>
-        <v>0.5115377082193443</v>
+        <v>5.3772721530958307</v>
       </c>
       <c r="I15" s="4" cm="1">
         <f t="array" ref="I15">_xll.OPTION.DELTA($C15,$D15,CODE($E15),$F15,$G15,$B15)</f>
-        <v>-2.8051246304186241E-2</v>
+        <v>-0.457764986688386</v>
       </c>
       <c r="J15" s="4" cm="1">
         <f t="array" ref="J15">_xll.OPTION.GAMMA($C15,$D15,CODE($E15),$F15,$G15,$B15)</f>
-        <v>2.1038434728139668E-4</v>
+        <v>2.8051246304186241E-2</v>
       </c>
       <c r="K15" s="4" cm="1">
         <f t="array" ref="K15">_xll.OPTION.VEGA($C15,$D15,CODE($E15),$F15,$G15,$B15)</f>
-        <v>0.21038434728139674</v>
+        <v>28.051246304186257</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1488,7 +1483,7 @@
       </c>
       <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Q</v>
+        <v>P</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1500,19 +1495,19 @@
       </c>
       <c r="H17" s="3" cm="1">
         <f t="array" ref="H17">_xll.OPTION.VALUE(C17, D17, CODE(E17), F17, G17, B17)</f>
-        <v>0.50869917923664487</v>
+        <v>3.8591823289540264</v>
       </c>
       <c r="I17" s="4" cm="1">
         <f t="array" ref="I17">(_xll.OPTION.VALUE($C17 + eps,$D17,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.VALUE($C17 - eps,$D17,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
-        <v>-3.9782183161585216E-2</v>
+        <v>-0.47010735596542119</v>
       </c>
       <c r="J17" s="4" cm="1">
         <f t="array" ref="J17">(_xll.OPTION.DELTA($C17 + eps,$D17,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.DELTA($C17 - eps,$D17,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
-        <v>2.9836637365637797E-4</v>
+        <v>3.9782183161585216E-2</v>
       </c>
       <c r="K17" s="4" cm="1">
         <f t="array" ref="K17">(_xll.OPTION.VALUE($C17,$D17 + eps,CODE($E17),$F17,$G17,$B17) - _xll.OPTION.VALUE($C17,$D17 - eps,CODE($E17),$F17,$G17,$B17))/(2*eps)</f>
-        <v>0.14918319927337276</v>
+        <v>19.891091576786923</v>
       </c>
       <c r="M17" t="s">
         <v>12</v>
@@ -1536,7 +1531,7 @@
       </c>
       <c r="E18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
@@ -1548,19 +1543,19 @@
       </c>
       <c r="H18" s="3" cm="1">
         <f t="array" ref="H18">_xll.OPTION.VALUE(C18, D18, CODE(E18), F18, G18, B18)</f>
-        <v>0.48880394316081516</v>
+        <v>4.1088700892080237</v>
       </c>
       <c r="I18" s="4" cm="1">
         <f t="array" ref="I18">(_xll.OPTION.VALUE($C18 + eps,$D18,CODE($E18),$F18,$G18,$B18) - _xll.OPTION.VALUE($C18 - eps,$D18,CODE($E18),$F18,$G18,$B18))/(2*eps)</f>
-        <v>3.9782183161862772E-2</v>
+        <v>0.52989264408775938</v>
       </c>
       <c r="J18" s="4" cm="1">
         <f t="array" ref="J18">(_xll.OPTION.DELTA($C18 + eps,$D18,CODE($E18),$F18,$G18,$B18) - _xll.OPTION.DELTA($C18 - eps,$D18,CODE($E18),$F18,$G18,$B18))/(2*eps)</f>
-        <v>-2.9836637365637797E-4</v>
+        <v>3.9782183161030105E-2</v>
       </c>
       <c r="K18" s="4" cm="1">
         <f t="array" ref="K18">(_xll.OPTION.VALUE($C18,$D18 + eps,CODE($E18),$F18,$G18,$B18) - _xll.OPTION.VALUE($C18,$D18 - eps,CODE($E18),$F18,$G18,$B18))/(2*eps)</f>
-        <v>-0.14918319927281765</v>
+        <v>19.89109157682023</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -1578,7 +1573,7 @@
       </c>
       <c r="E19" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -1590,19 +1585,19 @@
       </c>
       <c r="H19" s="3" cm="1">
         <f t="array" ref="H19">_xll.OPTION.VALUE(C19, D19, CODE(E19), F19, G19, B19)</f>
-        <v>0.82126688068602982</v>
+        <v>11.158704959381202</v>
       </c>
       <c r="I19" s="4" cm="1">
         <f t="array" ref="I19">(_xll.OPTION.VALUE($C19 + eps,$D19,CODE($E19),$F19,$G19,$B19) - _xll.OPTION.VALUE($C19 - eps,$D19,CODE($E19),$F19,$G19,$B19))/(2*eps)</f>
-        <v>2.3517268928352486E-2</v>
+        <v>0.84804902760637901</v>
       </c>
       <c r="J19" s="4" cm="1">
         <f t="array" ref="J19">(_xll.OPTION.DELTA($C19 + eps,$D19,CODE($E19),$F19,$G19,$B19) - _xll.OPTION.DELTA($C19 - eps,$D19,CODE($E19),$F19,$G19,$B19))/(2*eps)</f>
-        <v>-2.1980133153853831E-3</v>
+        <v>2.1379335389259957E-2</v>
       </c>
       <c r="K19" s="4" cm="1">
         <f t="array" ref="K19">(_xll.OPTION.VALUE($C19,$D19 + eps,CODE($E19),$F19,$G19,$B19) - _xll.OPTION.VALUE($C19,$D19 - eps,CODE($E19),$F19,$G19,$B19))/(2*eps)</f>
-        <v>-1.3297980621290728</v>
+        <v>12.934496852103905</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -1620,7 +1615,7 @@
       </c>
       <c r="E20" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
@@ -1632,19 +1627,19 @@
       </c>
       <c r="H20" s="3" cm="1">
         <f t="array" ref="H20">_xll.OPTION.VALUE(C20, D20, CODE(E20), F20, G20, B20)</f>
-        <v>0.1636024714669099</v>
+        <v>0.99815200408603022</v>
       </c>
       <c r="I20" s="4" cm="1">
         <f t="array" ref="I20">(_xll.OPTION.VALUE($C20 + eps,$D20,CODE($E20),$F20,$G20,$B20) - _xll.OPTION.VALUE($C20 - eps,$D20,CODE($E20),$F20,$G20,$B20))/(2*eps)</f>
-        <v>2.466511973497898E-2</v>
+        <v>0.18994423864382437</v>
       </c>
       <c r="J20" s="4" cm="1">
         <f t="array" ref="J20">(_xll.OPTION.DELTA($C20 + eps,$D20,CODE($E20),$F20,$G20,$B20) - _xll.OPTION.DELTA($C20 - eps,$D20,CODE($E20),$F20,$G20,$B20))/(2*eps)</f>
-        <v>2.1658485987834097E-3</v>
+        <v>2.71316317090875E-2</v>
       </c>
       <c r="K20" s="4" cm="1">
         <f t="array" ref="K20">(_xll.OPTION.VALUE($C20,$D20 + eps,CODE($E20),$F20,$G20,$B20) - _xll.OPTION.VALUE($C20,$D20 - eps,CODE($E20),$F20,$G20,$B20))/(2*eps)</f>
-        <v>1.0829243382798337</v>
+        <v>13.565814808965126</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -1662,7 +1657,7 @@
       </c>
       <c r="E21" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>Q</v>
+        <v>P</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
@@ -1674,19 +1669,19 @@
       </c>
       <c r="H21" s="3" cm="1">
         <f t="array" ref="H21">_xll.OPTION.VALUE(C21, D21, CODE(E21), F21, G21, B21)</f>
-        <v>0.52195192944108482</v>
+        <v>5.8470488441929005</v>
       </c>
       <c r="I21" s="4" cm="1">
         <f t="array" ref="I21">(_xll.OPTION.VALUE($C21 + eps,$D21,CODE($E21),$F21,$G21,$B21) - _xll.OPTION.VALUE($C21 - eps,$D21,CODE($E21),$F21,$G21,$B21))/(2*eps)</f>
-        <v>-2.6484645654911709E-2</v>
+        <v>-0.46348144102648092</v>
       </c>
       <c r="J21" s="4" cm="1">
         <f t="array" ref="J21">(_xll.OPTION.DELTA($C21 + eps,$D21,CODE($E21),$F21,$G21,$B21) - _xll.OPTION.DELTA($C21 - eps,$D21,CODE($E21),$F21,$G21,$B21))/(2*eps)</f>
-        <v>1.6185061232215636E-4</v>
+        <v>2.6484645654911709E-2</v>
       </c>
       <c r="K21" s="4" cm="1">
         <f t="array" ref="K21">(_xll.OPTION.VALUE($C21,$D21 + eps,CODE($E21),$F21,$G21,$B21) - _xll.OPTION.VALUE($C21,$D21 - eps,CODE($E21),$F21,$G21,$B21))/(2*eps)</f>
-        <v>0.12138796169458566</v>
+        <v>19.863484238191731</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -1704,7 +1699,7 @@
       </c>
       <c r="E22" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>Q</v>
+        <v>P</v>
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
@@ -1716,103 +1711,103 @@
       </c>
       <c r="H22" s="3" cm="1">
         <f t="array" ref="H22">_xll.OPTION.VALUE(C22, D22, CODE(E22), F22, G22, B22)</f>
-        <v>0.5115377082193443</v>
+        <v>5.3772721530958307</v>
       </c>
       <c r="I22" s="4" cm="1">
         <f t="array" ref="I22">(_xll.OPTION.VALUE($C22 + eps,$D22,CODE($E22),$F22,$G22,$B22) - _xll.OPTION.VALUE($C22 - eps,$D22,CODE($E22),$F22,$G22,$B22))/(2*eps)</f>
-        <v>-2.8051246306892708E-2</v>
+        <v>-0.45776498669880539</v>
       </c>
       <c r="J22" s="4" cm="1">
         <f t="array" ref="J22">(_xll.OPTION.DELTA($C22 + eps,$D22,CODE($E22),$F22,$G22,$B22) - _xll.OPTION.DELTA($C22 - eps,$D22,CODE($E22),$F22,$G22,$B22))/(2*eps)</f>
-        <v>2.1038434728712363E-4</v>
+        <v>2.8051246306892708E-2</v>
       </c>
       <c r="K22" s="4" cm="1">
         <f t="array" ref="K22">(_xll.OPTION.VALUE($C22,$D22 + eps,CODE($E22),$F22,$G22,$B22) - _xll.OPTION.VALUE($C22,$D22 - eps,CODE($E22),$F22,$G22,$B22))/(2*eps)</f>
-        <v>0.21038436478104661</v>
+        <v>28.051246293987475</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I24" s="5">
         <f>(I10-I17)/ABS(I10)</f>
-        <v>2.1002171037053864E-11</v>
+        <v>3.8962526858714442E-11</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" ref="J24:K24" si="6">(J10-J17)/ABS(J10)</f>
-        <v>1.6506803509796087E-10</v>
+        <v>-2.1002171037053864E-11</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="6"/>
-        <v>-8.3257092500668951E-8</v>
+        <v>1.8037882511377157E-10</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I25" s="5">
         <f t="shared" ref="I25:K25" si="7">(I11-I18)/ABS(I11)</f>
-        <v>-2.7979057022288933E-11</v>
+        <v>-6.5794460381141241E-11</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="7"/>
-        <v>-1.6506803509796087E-10</v>
+        <v>-7.0483990665837273E-12</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="7"/>
-        <v>8.3253371494810158E-8</v>
+        <v>1.7870437247731517E-10</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I26" s="5">
         <f t="shared" ref="I26:K26" si="8">(I12-I19)/ABS(I12)</f>
-        <v>-8.2972047157496815E-11</v>
+        <v>-9.3449845933064505E-11</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="8"/>
-        <v>3.8858004538825432E-11</v>
+        <v>-7.5890750416554756E-11</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="8"/>
-        <v>4.7921480223816371E-9</v>
+        <v>8.1751666709303758E-8</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I27" s="5">
         <f t="shared" ref="I27:K27" si="9">(I13-I20)/ABS(I13)</f>
-        <v>-6.990061215355985E-12</v>
+        <v>5.5999723022285385E-11</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="9"/>
-        <v>1.1613888476031938E-11</v>
+        <v>-2.9496070134292289E-11</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="9"/>
-        <v>-3.5898678666687006E-8</v>
+        <v>7.7045015131779243E-8</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I28" s="5">
         <f t="shared" ref="I28:K28" si="10">(I14-I21)/ABS(I14)</f>
-        <v>3.4790955555105605E-11</v>
+        <v>5.8956281162143686E-11</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="10"/>
-        <v>4.8106474633291612E-11</v>
+        <v>-3.4790955555105605E-11</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="10"/>
-        <v>-2.0159568230276334E-8</v>
+        <v>1.1583982385851384E-10</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I29" s="5">
         <f t="shared" ref="I29:K29" si="11">(I15-I22)/ABS(I15)</f>
-        <v>9.6482950012733886E-11</v>
+        <v>2.2761434093797665E-11</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="11"/>
-        <v>-2.7221348377161453E-11</v>
+        <v>-9.6482950012733886E-11</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="11"/>
-        <v>-8.3179428955680577E-8</v>
+        <v>3.6357679628793995E-10</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">

--- a/excel/hw7.xlsx
+++ b/excel/hw7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\keithalewis\FRE6233\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\keithalewis\FRE6233\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BB6F9B-A3E2-4D67-9520-0206EE63C5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA0626-41C7-40D1-9F18-9B0AA56745CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="25575" windowHeight="14520" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1109,18 +1108,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>100</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.01</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>19.891091580374855</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.01</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>19.891091580374855</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.01</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>12.934497909520667</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.01</v>
       </c>
@@ -1392,7 +1391,7 @@
         <v>13.565815854143613</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.01</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>19.863484240492713</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0.01</v>
       </c>
@@ -1464,11 +1463,11 @@
         <v>28.051246304186257</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17">
         <f>B10</f>
         <v>0.01</v>
@@ -1516,7 +1515,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18">
         <f t="shared" ref="B18:G18" si="1">B11</f>
         <v>0.01</v>
@@ -1558,7 +1557,7 @@
         <v>19.89109157682023</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19">
         <f t="shared" ref="B19:G19" si="2">B12</f>
         <v>0.01</v>
@@ -1600,7 +1599,7 @@
         <v>12.934496852103905</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20">
         <f t="shared" ref="B20:G20" si="3">B13</f>
         <v>0.01</v>
@@ -1642,7 +1641,7 @@
         <v>13.565814808965126</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21">
         <f t="shared" ref="B21:G21" si="4">B14</f>
         <v>0.01</v>
@@ -1684,7 +1683,7 @@
         <v>19.863484238191731</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22">
         <f t="shared" ref="B22:G22" si="5">B15</f>
         <v>0.01</v>
@@ -1726,7 +1725,7 @@
         <v>28.051246293987475</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I24" s="5">
         <f>(I10-I17)/ABS(I10)</f>
         <v>3.8962526858714442E-11</v>
@@ -1740,7 +1739,7 @@
         <v>1.8037882511377157E-10</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I25" s="5">
         <f t="shared" ref="I25:K25" si="7">(I11-I18)/ABS(I11)</f>
         <v>-6.5794460381141241E-11</v>
@@ -1754,7 +1753,7 @@
         <v>1.7870437247731517E-10</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I26" s="5">
         <f t="shared" ref="I26:K26" si="8">(I12-I19)/ABS(I12)</f>
         <v>-9.3449845933064505E-11</v>
@@ -1768,7 +1767,7 @@
         <v>8.1751666709303758E-8</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I27" s="5">
         <f t="shared" ref="I27:K27" si="9">(I13-I20)/ABS(I13)</f>
         <v>5.5999723022285385E-11</v>
@@ -1782,7 +1781,7 @@
         <v>7.7045015131779243E-8</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I28" s="5">
         <f t="shared" ref="I28:K28" si="10">(I14-I21)/ABS(I14)</f>
         <v>5.8956281162143686E-11</v>
@@ -1796,7 +1795,7 @@
         <v>1.1583982385851384E-10</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I29" s="5">
         <f t="shared" ref="I29:K29" si="11">(I15-I22)/ABS(I15)</f>
         <v>2.2761434093797665E-11</v>
@@ -1810,7 +1809,7 @@
         <v>3.6357679628793995E-10</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>

--- a/excel/hw7.xlsx
+++ b/excel/hw7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\keithalewis\FRE6233\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\keithalewis\FRE6233\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA0626-41C7-40D1-9F18-9B0AA56745CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6BBB59-CE5C-40FC-A285-D24804884FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="14520" xr2:uid="{B7C01105-89CC-4D3E-BF96-84C6F912A3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1106,20 +1106,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566DE474-7680-4E6F-8EA1-92B34E11CB88}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1151,9 +1153,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -1172,13 +1174,16 @@
         <v>0.25</v>
       </c>
       <c r="H5" s="3" cm="1">
-        <f t="array" ref="H5">_xll.OPTION.VALUE(C5, D5, E5, F5, G5, B5)</f>
-        <v>3.987761167674492</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="array" ref="H5">_xll.OPTION.VALUE(C5, D5, E5, F5, G5, B5,L5)</f>
+        <v>2.2701309014951401E-2</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1198,10 +1203,10 @@
       </c>
       <c r="H6" s="3" cm="1">
         <f t="array" ref="H6">_xll.OPTION.VALUE(C6, D6, E6, F6, G6, B6)</f>
-        <v>3.987761167674492</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+        <v>0.47481429664780955</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1225,7 +1230,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>100</v>
       </c>
@@ -1247,7 +1252,7 @@
         <v>3.987761167674492</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.01</v>
       </c>
@@ -1283,7 +1288,7 @@
         <v>19.891091580374855</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.01</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>19.891091580374855</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.01</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>12.934497909520667</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.01</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>13.565815854143613</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.01</v>
       </c>
@@ -1427,7 +1432,7 @@
         <v>19.863484240492713</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.01</v>
       </c>
@@ -1463,11 +1468,11 @@
         <v>28.051246304186257</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>B10</f>
         <v>0.01</v>
@@ -1515,7 +1520,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ref="B18:G18" si="1">B11</f>
         <v>0.01</v>
@@ -1557,7 +1562,7 @@
         <v>19.89109157682023</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ref="B19:G19" si="2">B12</f>
         <v>0.01</v>
@@ -1599,7 +1604,7 @@
         <v>12.934496852103905</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" ref="B20:G20" si="3">B13</f>
         <v>0.01</v>
@@ -1641,7 +1646,7 @@
         <v>13.565814808965126</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ref="B21:G21" si="4">B14</f>
         <v>0.01</v>
@@ -1683,7 +1688,7 @@
         <v>19.863484238191731</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" ref="B22:G22" si="5">B15</f>
         <v>0.01</v>
@@ -1725,7 +1730,7 @@
         <v>28.051246293987475</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I24" s="5">
         <f>(I10-I17)/ABS(I10)</f>
         <v>3.8962526858714442E-11</v>
@@ -1739,7 +1744,7 @@
         <v>1.8037882511377157E-10</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I25" s="5">
         <f t="shared" ref="I25:K25" si="7">(I11-I18)/ABS(I11)</f>
         <v>-6.5794460381141241E-11</v>
@@ -1753,7 +1758,7 @@
         <v>1.7870437247731517E-10</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I26" s="5">
         <f t="shared" ref="I26:K26" si="8">(I12-I19)/ABS(I12)</f>
         <v>-9.3449845933064505E-11</v>
@@ -1767,7 +1772,7 @@
         <v>8.1751666709303758E-8</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I27" s="5">
         <f t="shared" ref="I27:K27" si="9">(I13-I20)/ABS(I13)</f>
         <v>5.5999723022285385E-11</v>
@@ -1781,7 +1786,7 @@
         <v>7.7045015131779243E-8</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I28" s="5">
         <f t="shared" ref="I28:K28" si="10">(I14-I21)/ABS(I14)</f>
         <v>5.8956281162143686E-11</v>
@@ -1795,7 +1800,7 @@
         <v>1.1583982385851384E-10</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I29" s="5">
         <f t="shared" ref="I29:K29" si="11">(I15-I22)/ABS(I15)</f>
         <v>2.2761434093797665E-11</v>
@@ -1809,7 +1814,7 @@
         <v>3.6357679628793995E-10</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
